--- a/Data/SHRS_Abrasion_Data.xlsx
+++ b/Data/SHRS_Abrasion_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wwu2-my.sharepoint.com/personal/pinkeb_wwu_edu/Documents/Thesis/ThesisCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wwu2-my.sharepoint.com/personal/pinkeb_wwu_edu/Documents/Thesis/ThesisCode/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{16345F6A-63B9-4987-AA4C-2EB18D3A81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1008D57-A2A5-ED41-9D1D-16BF76752F82}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{16345F6A-63B9-4987-AA4C-2EB18D3A81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40805BAC-9F27-3946-8E52-AFD666F779D9}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="740" windowWidth="18340" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13160" yWindow="1220" windowWidth="18340" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToPython" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
   <si>
     <t>Clast</t>
   </si>
@@ -225,12 +225,6 @@
   </si>
   <si>
     <t>Lithology</t>
-  </si>
-  <si>
-    <t>NN</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
 </sst>
 </file>
@@ -2587,10 +2581,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2956,7 +2946,7 @@
         <v>3.1</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2985,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3014,7 +3004,7 @@
         <v>1.7</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3130,7 +3120,7 @@
         <v>7.9</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3304,7 +3294,7 @@
         <v>11.4</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SHRS_Abrasion_Data.xlsx
+++ b/Data/SHRS_Abrasion_Data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wwu2-my.sharepoint.com/personal/pinkeb_wwu_edu/Documents/Thesis/ThesisCode/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{16345F6A-63B9-4987-AA4C-2EB18D3A81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40805BAC-9F27-3946-8E52-AFD666F779D9}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{16345F6A-63B9-4987-AA4C-2EB18D3A81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F9D2BCC-4429-E647-99B3-16A16BA06B75}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="1220" windowWidth="18340" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14700" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToPython" sheetId="4" r:id="rId1"/>
     <sheet name="Tidying" sheetId="5" r:id="rId2"/>
-    <sheet name="Density" sheetId="6" r:id="rId3"/>
+    <sheet name="AllDensity" sheetId="6" r:id="rId3"/>
+    <sheet name="Density" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
   <si>
     <t>Clast</t>
   </si>
@@ -225,13 +226,34 @@
   </si>
   <si>
     <t>Lithology</t>
+  </si>
+  <si>
+    <t>Max abrasion is _ amount over abrasion avg</t>
+  </si>
+  <si>
+    <t>Min Abrasion</t>
+  </si>
+  <si>
+    <t>P7.1</t>
+  </si>
+  <si>
+    <t>P8.1</t>
+  </si>
+  <si>
+    <t>V13.2</t>
+  </si>
+  <si>
+    <t>Min Density</t>
+  </si>
+  <si>
+    <t>Max Density</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +263,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -286,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -294,6 +325,13 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2499,13 +2537,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>556208</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2582,9 +2620,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2622,7 +2660,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2728,7 +2766,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2870,7 +2908,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2878,20 +2916,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6D912F-4232-45B1-A0EA-C5BFD5D70276}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2905,22 +2944,31 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2939,17 +2987,23 @@
       <c r="F2" s="3">
         <v>2635.8132434993154</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
+        <v>58.472470786398844</v>
+      </c>
+      <c r="H2" s="3">
+        <v>40.050531634908566</v>
+      </c>
+      <c r="I2">
         <v>66.5</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>3.1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2968,17 +3022,23 @@
       <c r="F3" s="4">
         <v>2489.5873015873017</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
+        <v>90.412698412698319</v>
+      </c>
+      <c r="H3" s="3">
+        <v>158.15873015873012</v>
+      </c>
+      <c r="I3" s="2">
         <v>72.5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2997,17 +3057,23 @@
       <c r="F4" s="3">
         <v>2651.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="I4">
         <v>70</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3026,17 +3092,23 @@
       <c r="F5" s="4">
         <v>2296.0950746346284</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
+        <v>125.08139595360717</v>
+      </c>
+      <c r="H5" s="3">
+        <v>144.370936703594</v>
+      </c>
+      <c r="I5" s="2">
         <v>47.5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>8.6</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3055,17 +3127,23 @@
       <c r="F6" s="3">
         <v>2442.761904761905</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
+        <v>79.238095238094957</v>
+      </c>
+      <c r="H6" s="3">
+        <v>50.761904761905043</v>
+      </c>
+      <c r="I6">
         <v>56</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>4.2</v>
       </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3084,17 +3162,23 @@
       <c r="F7" s="4">
         <v>2398.125</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
+        <v>20.625</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20.625</v>
+      </c>
+      <c r="I7" s="2">
         <v>46</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>8.6</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3113,17 +3197,23 @@
       <c r="F8" s="3">
         <v>2288.5714285714289</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>53</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>7.9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3142,17 +3232,23 @@
       <c r="F9" s="4">
         <v>2535.875</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
+        <v>139.12500000000045</v>
+      </c>
+      <c r="H9" s="3">
+        <v>118.875</v>
+      </c>
+      <c r="I9" s="2">
         <v>52</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>6.8</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3171,17 +3267,23 @@
       <c r="F10" s="3">
         <v>2512.735042735043</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
+        <v>187.26495726495705</v>
+      </c>
+      <c r="H10" s="3">
+        <v>184.529914529915</v>
+      </c>
+      <c r="I10">
         <v>47</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>10.199999999999999</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3200,17 +3302,23 @@
       <c r="F11" s="4">
         <v>2151.6666666666665</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
+        <v>115</v>
+      </c>
+      <c r="H11" s="3">
+        <v>71.666666666666515</v>
+      </c>
+      <c r="I11" s="2">
         <v>44.5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>10.4</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3229,17 +3337,23 @@
       <c r="F12" s="3">
         <v>1783.8356575198679</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
+        <v>103.34382965961913</v>
+      </c>
+      <c r="H12" s="3">
+        <v>194.94676863097902</v>
+      </c>
+      <c r="I12">
         <v>32</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>6.7</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3258,17 +3372,23 @@
       <c r="F13" s="4">
         <v>1600</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>23.5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="J13" s="2">
         <v>4</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3287,13 +3407,19 @@
       <c r="F14" s="3">
         <v>2733.181818181818</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
+        <v>96.818181818181984</v>
+      </c>
+      <c r="H14" s="3">
+        <v>96.818181818181984</v>
+      </c>
+      <c r="I14">
         <v>36</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>11.4</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3305,10 +3431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC77B00-BD1A-4A6E-A6AD-2B80825B470B}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3318,7 +3444,7 @@
     <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3346,8 +3472,11 @@
       <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3376,7 +3505,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3434,7 +3563,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3463,7 +3592,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -3492,7 +3621,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3521,7 +3650,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3550,7 +3679,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3579,7 +3708,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3608,7 +3737,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3637,7 +3766,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3666,7 +3795,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3695,7 +3824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3732,10 +3861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5683A2D-0C35-4BA2-B814-93F0BC00D63F}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A19" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3781,7 +3910,6 @@
         <v>118</v>
       </c>
       <c r="E2" s="3">
-        <f>C2/D2*1000</f>
         <v>2595.7627118644068</v>
       </c>
       <c r="F2">
@@ -3805,7 +3933,6 @@
         <v>70</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E33" si="0">C3/D3*1000</f>
         <v>2694.2857142857142</v>
       </c>
       <c r="F3">
@@ -3829,7 +3956,6 @@
         <v>23</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
         <v>2617.391304347826</v>
       </c>
       <c r="F4">
@@ -3853,7 +3979,6 @@
         <v>150</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
         <v>2557.3333333333335</v>
       </c>
       <c r="F5" s="2">
@@ -3877,7 +4002,6 @@
         <v>105</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
         <v>2331.4285714285716</v>
       </c>
       <c r="F6" s="2">
@@ -3901,7 +4025,6 @@
         <v>35</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
         <v>2580</v>
       </c>
       <c r="F7" s="2">
@@ -3925,7 +4048,6 @@
         <v>160</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
         <v>2645</v>
       </c>
       <c r="F8">
@@ -3949,7 +4071,6 @@
         <v>50</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
         <v>2658</v>
       </c>
       <c r="F9">
@@ -3973,7 +4094,6 @@
         <v>85</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
         <v>2421.1764705882356</v>
       </c>
       <c r="F10" s="2">
@@ -3997,7 +4117,6 @@
         <v>29</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
         <v>2151.7241379310344</v>
       </c>
       <c r="F11" s="2">
@@ -4021,7 +4140,6 @@
         <v>13</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
         <v>2315.3846153846157</v>
       </c>
       <c r="F12" s="2">
@@ -4045,7 +4163,6 @@
         <v>100</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
         <v>2522</v>
       </c>
       <c r="F13">
@@ -4069,7 +4186,6 @@
         <v>42</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
         <v>2414.2857142857147</v>
       </c>
       <c r="F14">
@@ -4093,7 +4209,6 @@
         <v>25</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
         <v>2392</v>
       </c>
       <c r="F15">
@@ -4117,7 +4232,6 @@
         <v>80</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
         <v>2377.5</v>
       </c>
       <c r="F16" s="2">
@@ -4141,7 +4255,6 @@
         <v>32</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
         <v>2418.75</v>
       </c>
       <c r="F17" s="2">
@@ -4165,7 +4278,6 @@
         <v>105</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
         <v>2288.5714285714289</v>
       </c>
       <c r="F18">
@@ -4189,7 +4301,6 @@
         <v>100</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="0"/>
         <v>2417</v>
       </c>
       <c r="F19" s="2">
@@ -4213,7 +4324,6 @@
         <v>32</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
         <v>2515.625</v>
       </c>
       <c r="F20" s="2">
@@ -4237,7 +4347,6 @@
         <v>12</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="0"/>
         <v>2675.0000000000005</v>
       </c>
       <c r="F21" s="2">
@@ -4261,7 +4370,6 @@
         <v>39</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="0"/>
         <v>2328.2051282051279</v>
       </c>
       <c r="F22">
@@ -4285,7 +4393,6 @@
         <v>10</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="0"/>
         <v>2510.0000000000005</v>
       </c>
       <c r="F23">
@@ -4309,7 +4416,6 @@
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
       <c r="F24">
@@ -4333,7 +4439,6 @@
         <v>30</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="0"/>
         <v>2266.6666666666665</v>
       </c>
       <c r="F25" s="2">
@@ -4357,7 +4462,6 @@
         <v>12</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="0"/>
         <v>2108.3333333333335</v>
       </c>
       <c r="F26" s="2">
@@ -4381,7 +4485,6 @@
         <v>2.5</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="0"/>
         <v>2080</v>
       </c>
       <c r="F27" s="2">
@@ -4405,7 +4508,6 @@
         <v>57</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="0"/>
         <v>1875.4385964912281</v>
       </c>
       <c r="F28">
@@ -4429,7 +4531,6 @@
         <v>39</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="0"/>
         <v>1887.1794871794871</v>
       </c>
       <c r="F29">
@@ -4453,7 +4554,6 @@
         <v>9</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="0"/>
         <v>1588.8888888888889</v>
       </c>
       <c r="F30">
@@ -4477,7 +4577,6 @@
         <v>8</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="F31" s="2">
@@ -4501,7 +4600,6 @@
         <v>33</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="0"/>
         <v>2636.363636363636</v>
       </c>
       <c r="F32">
@@ -4525,13 +4623,354 @@
         <v>10</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="0"/>
         <v>2830</v>
       </c>
       <c r="F33">
         <v>36</v>
       </c>
       <c r="G33">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D392B8DB-A338-BC4D-B268-277F9982860C}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>306.3</v>
+      </c>
+      <c r="D2">
+        <v>118</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2635.8132434993154</v>
+      </c>
+      <c r="F2">
+        <v>66.5</v>
+      </c>
+      <c r="G2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>383.6</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2489.5873015873017</v>
+      </c>
+      <c r="F3" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>423.2</v>
+      </c>
+      <c r="D4">
+        <v>160</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2651.5</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>205.8</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2296.0950746346284</v>
+      </c>
+      <c r="F5" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>252.2</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2442.761904761905</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>190.2</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2398.125</v>
+      </c>
+      <c r="F7" s="2">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>240.3</v>
+      </c>
+      <c r="D8">
+        <v>105</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2288.5714285714289</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>241.7</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2535.875</v>
+      </c>
+      <c r="F9" s="2">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>90.8</v>
+      </c>
+      <c r="D10">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2512.735042735043</v>
+      </c>
+      <c r="F10">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2151.6666666666665</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>106.9</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1783.8356575198679</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>12.8</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F13" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>87</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2733.181818181818</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14">
         <v>11.4</v>
       </c>
     </row>
